--- a/Proyecto1/FSM4-C-ESTADOS .xlsx
+++ b/Proyecto1/FSM4-C-ESTADOS .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gil\Desktop\Universidad\4to semestre\Electrónica digital 1\Digital_1\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C8D8E6-44B1-44F1-8B77-B4C28BE85438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF5CDAA-6EE4-48D8-B511-B4DAF66724C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70610455-FCC9-4428-B86C-B3C913AE75C9}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8964" xr2:uid="{70610455-FCC9-4428-B86C-B3C913AE75C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -76,15 +76,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,13 +98,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -418,7 +442,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,191 +475,191 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>0</v>
       </c>
     </row>
